--- a/GL280_TestData_MaintainAccountingCalendar_21B.xlsx
+++ b/GL280_TestData_MaintainAccountingCalendar_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4DB45F-8C20-4E37-A268-FE854B332E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9178E95-67DA-4DBF-BD8E-DD139179FD2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>UserName</t>
   </si>
@@ -88,7 +88,10 @@
     <t>SetName</t>
   </si>
   <si>
-    <t>Testing12</t>
+    <t>Provide Alpha-Numeric Unique Value</t>
+  </si>
+  <si>
+    <t>Testing17</t>
   </si>
 </sst>
 </file>
@@ -112,17 +115,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -152,13 +162,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,120 +496,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.54296875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.26953125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="44.1796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="26.81640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="G2" s="4">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1</v>
+      <c r="H2" s="4">
+        <v>30</v>
+      </c>
+      <c r="I2" s="4">
+        <v>40</v>
+      </c>
+      <c r="J2" s="4">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4">
+        <v>30</v>
+      </c>
+      <c r="L2" s="4">
+        <v>60</v>
+      </c>
+      <c r="M2" s="4">
+        <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2">
-        <v>120</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
+    <row r="5" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
